--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl11-Ackr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H2">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J2">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N2">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P2">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q2">
-        <v>0.02143207459133333</v>
+        <v>0.59276304567</v>
       </c>
       <c r="R2">
-        <v>0.192888671322</v>
+        <v>5.33486741103</v>
       </c>
       <c r="S2">
-        <v>0.000595131844624871</v>
+        <v>0.01213464721711386</v>
       </c>
       <c r="T2">
-        <v>0.0005951318446248711</v>
+        <v>0.01213464721711386</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H3">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J3">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.06804</v>
       </c>
       <c r="O3">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P3">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q3">
-        <v>0.6476068846977777</v>
+        <v>0.5592150636000001</v>
       </c>
       <c r="R3">
-        <v>5.82846196228</v>
+        <v>5.032935572400001</v>
       </c>
       <c r="S3">
-        <v>0.01798292919518891</v>
+        <v>0.01144787544508922</v>
       </c>
       <c r="T3">
-        <v>0.01798292919518892</v>
+        <v>0.01144787544508922</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.819052333333333</v>
+        <v>1.57077</v>
       </c>
       <c r="H4">
-        <v>5.457157</v>
+        <v>4.71231</v>
       </c>
       <c r="I4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="J4">
-        <v>0.02872704074300508</v>
+        <v>0.02582502173444737</v>
       </c>
       <c r="K4">
         <v>2</v>
@@ -682,33 +682,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N4">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P4">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q4">
-        <v>0.1440355955072222</v>
+        <v>0.10954340544</v>
       </c>
       <c r="R4">
-        <v>1.296320359565</v>
+        <v>0.9858906489600001</v>
       </c>
       <c r="S4">
-        <v>0.003999620721762434</v>
+        <v>0.002242499072244285</v>
       </c>
       <c r="T4">
-        <v>0.003999620721762435</v>
+        <v>0.002242499072244285</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,7 +717,7 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.819052333333333</v>
+        <v>56.85979966666667</v>
       </c>
       <c r="H5">
-        <v>5.457157</v>
+        <v>170.579399</v>
       </c>
       <c r="I5">
-        <v>0.02872704074300508</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J5">
-        <v>0.02872704074300508</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1217406666666667</v>
+        <v>0.377371</v>
       </c>
       <c r="N5">
-        <v>0.365222</v>
+        <v>1.132113</v>
       </c>
       <c r="O5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P5">
-        <v>0.2140616931775755</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q5">
-        <v>0.2214526437615556</v>
+        <v>21.45723946000967</v>
       </c>
       <c r="R5">
-        <v>1.993073793854</v>
+        <v>193.115155140087</v>
       </c>
       <c r="S5">
-        <v>0.006149358981428865</v>
+        <v>0.4392582044416232</v>
       </c>
       <c r="T5">
-        <v>0.006149358981428866</v>
+        <v>0.4392582044416232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -794,10 +794,10 @@
         <v>170.579399</v>
       </c>
       <c r="I6">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J6">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,28 +806,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.011782</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N6">
-        <v>0.035346</v>
+        <v>1.06804</v>
       </c>
       <c r="O6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P6">
-        <v>0.02071678214087482</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q6">
-        <v>0.6699221596726667</v>
+        <v>20.24284681199556</v>
       </c>
       <c r="R6">
-        <v>6.029299437054</v>
+        <v>182.18562130796</v>
       </c>
       <c r="S6">
-        <v>0.01860258599521177</v>
+        <v>0.4143979732339716</v>
       </c>
       <c r="T6">
-        <v>0.01860258599521178</v>
+        <v>0.4143979732339716</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,7 +841,7 @@
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -856,45 +856,45 @@
         <v>170.579399</v>
       </c>
       <c r="I7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="J7">
-        <v>0.8979476575422553</v>
+        <v>0.934831682683009</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.3560133333333333</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N7">
-        <v>1.06804</v>
+        <v>0.209216</v>
       </c>
       <c r="O7">
-        <v>0.6259930967504086</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P7">
-        <v>0.6259930967504087</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q7">
-        <v>20.24284681199556</v>
+        <v>3.965326615687112</v>
       </c>
       <c r="R7">
-        <v>182.18562130796</v>
+        <v>35.68793954118401</v>
       </c>
       <c r="S7">
-        <v>0.5621090348646518</v>
+        <v>0.08117550500741413</v>
       </c>
       <c r="T7">
-        <v>0.5621090348646518</v>
+        <v>0.08117550500741413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
         <v>25</v>
@@ -903,60 +903,60 @@
         <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>56.85979966666667</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H8">
-        <v>170.579399</v>
+        <v>2.782129</v>
       </c>
       <c r="I8">
-        <v>0.8979476575422553</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J8">
-        <v>0.8979476575422553</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.07918166666666666</v>
+        <v>0.377371</v>
       </c>
       <c r="N8">
-        <v>0.237545</v>
+        <v>1.132113</v>
       </c>
       <c r="O8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P8">
-        <v>0.139228427931141</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q8">
-        <v>4.502253703939445</v>
+        <v>0.3499649342863334</v>
       </c>
       <c r="R8">
-        <v>40.52028333545501</v>
+        <v>3.149684408577</v>
       </c>
       <c r="S8">
-        <v>0.1250198407240588</v>
+        <v>0.007164247243390562</v>
       </c>
       <c r="T8">
-        <v>0.1250198407240588</v>
+        <v>0.007164247243390561</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>25</v>
@@ -965,25 +965,25 @@
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>56.85979966666667</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H9">
-        <v>170.579399</v>
+        <v>2.782129</v>
       </c>
       <c r="I9">
-        <v>0.8979476575422553</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J9">
-        <v>0.8979476575422553</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1217406666666667</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N9">
-        <v>0.365222</v>
+        <v>1.06804</v>
       </c>
       <c r="O9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P9">
-        <v>0.2140616931775755</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q9">
-        <v>6.922149917953112</v>
+        <v>0.3301583396844445</v>
       </c>
       <c r="R9">
-        <v>62.29934926157801</v>
+        <v>2.971425057160001</v>
       </c>
       <c r="S9">
-        <v>0.1922161959583329</v>
+        <v>0.006758779932595824</v>
       </c>
       <c r="T9">
-        <v>0.1922161959583329</v>
+        <v>0.006758779932595824</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,60 +1027,60 @@
         <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.611504</v>
+        <v>0.9273763333333335</v>
       </c>
       <c r="H10">
-        <v>4.834512</v>
+        <v>2.782129</v>
       </c>
       <c r="I10">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="J10">
-        <v>0.02544937285046902</v>
+        <v>0.01524698967025436</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.011782</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N10">
-        <v>0.035346</v>
+        <v>0.209216</v>
       </c>
       <c r="O10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P10">
-        <v>0.02071678214087482</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q10">
-        <v>0.018986740128</v>
+        <v>0.06467398898488891</v>
       </c>
       <c r="R10">
-        <v>0.170880661152</v>
+        <v>0.5820659008640001</v>
       </c>
       <c r="S10">
-        <v>0.0005272291129650611</v>
+        <v>0.001323962494267975</v>
       </c>
       <c r="T10">
-        <v>0.0005272291129650612</v>
+        <v>0.001323962494267975</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
@@ -1089,7 +1089,7 @@
         <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.611504</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H11">
-        <v>4.834512</v>
+        <v>2.343024</v>
       </c>
       <c r="I11">
-        <v>0.02544937285046902</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J11">
-        <v>0.02544937285046902</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1116,33 +1116,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>0.3560133333333333</v>
+        <v>0.377371</v>
       </c>
       <c r="N11">
-        <v>1.06804</v>
+        <v>1.132113</v>
       </c>
       <c r="O11">
-        <v>0.6259930967504086</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P11">
-        <v>0.6259930967504087</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q11">
-        <v>0.57371691072</v>
+        <v>0.2947297699679999</v>
       </c>
       <c r="R11">
-        <v>5.16345219648</v>
+        <v>2.652567929712</v>
       </c>
       <c r="S11">
-        <v>0.01593113172102088</v>
+        <v>0.006033510032495949</v>
       </c>
       <c r="T11">
-        <v>0.01593113172102088</v>
+        <v>0.006033510032495948</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
         <v>25</v>
@@ -1151,7 +1151,7 @@
         <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12">
         <v>3</v>
@@ -1160,51 +1160,51 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.611504</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H12">
-        <v>4.834512</v>
+        <v>2.343024</v>
       </c>
       <c r="I12">
-        <v>0.02544937285046902</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J12">
-        <v>0.02544937285046902</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M12">
-        <v>0.07918166666666666</v>
+        <v>0.3560133333333333</v>
       </c>
       <c r="N12">
-        <v>0.237545</v>
+        <v>1.06804</v>
       </c>
       <c r="O12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P12">
-        <v>0.139228427931141</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q12">
-        <v>0.12760157256</v>
+        <v>0.27804926144</v>
       </c>
       <c r="R12">
-        <v>1.14841415304</v>
+        <v>2.50244335296</v>
       </c>
       <c r="S12">
-        <v>0.003543276173804262</v>
+        <v>0.005692037857622847</v>
       </c>
       <c r="T12">
-        <v>0.003543276173804263</v>
+        <v>0.005692037857622847</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
@@ -1213,7 +1213,7 @@
         <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13">
         <v>3</v>
@@ -1222,51 +1222,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.611504</v>
+        <v>0.7810079999999999</v>
       </c>
       <c r="H13">
-        <v>4.834512</v>
+        <v>2.343024</v>
       </c>
       <c r="I13">
-        <v>0.02544937285046902</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="J13">
-        <v>0.02544937285046902</v>
+        <v>0.0128405486320577</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.1217406666666667</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N13">
-        <v>0.365222</v>
+        <v>0.209216</v>
       </c>
       <c r="O13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P13">
-        <v>0.2140616931775755</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q13">
-        <v>0.196185571296</v>
+        <v>0.054466456576</v>
       </c>
       <c r="R13">
-        <v>1.765670141664</v>
+        <v>0.490198109184</v>
       </c>
       <c r="S13">
-        <v>0.00544773584267882</v>
+        <v>0.001115000741938899</v>
       </c>
       <c r="T13">
-        <v>0.005447735842678821</v>
+        <v>0.001115000741938899</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
         <v>25</v>
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.246467333333333</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H14">
-        <v>3.739402</v>
+        <v>2.053846</v>
       </c>
       <c r="I14">
-        <v>0.01968460016973576</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J14">
-        <v>0.01968460016973576</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,33 +1302,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.011782</v>
+        <v>0.377371</v>
       </c>
       <c r="N14">
-        <v>0.035346</v>
+        <v>1.132113</v>
       </c>
       <c r="O14">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655765</v>
       </c>
       <c r="P14">
-        <v>0.02071678214087482</v>
+        <v>0.4698794580655764</v>
       </c>
       <c r="Q14">
-        <v>0.01468587812133333</v>
+        <v>0.2583539729553333</v>
       </c>
       <c r="R14">
-        <v>0.132172903092</v>
+        <v>2.325185756598</v>
       </c>
       <c r="S14">
-        <v>0.0004078015732466432</v>
+        <v>0.005288849130952853</v>
       </c>
       <c r="T14">
-        <v>0.0004078015732466433</v>
+        <v>0.005288849130952852</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
         <v>25</v>
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.246467333333333</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H15">
-        <v>3.739402</v>
+        <v>2.053846</v>
       </c>
       <c r="I15">
-        <v>0.01968460016973576</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J15">
-        <v>0.01968460016973576</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K15">
         <v>1</v>
@@ -1370,27 +1370,27 @@
         <v>1.06804</v>
       </c>
       <c r="O15">
-        <v>0.6259930967504086</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="P15">
-        <v>0.6259930967504087</v>
+        <v>0.443286188209444</v>
       </c>
       <c r="Q15">
-        <v>0.4437589902311111</v>
+        <v>0.2437321868711111</v>
       </c>
       <c r="R15">
-        <v>3.99383091208</v>
+        <v>2.19358968184</v>
       </c>
       <c r="S15">
-        <v>0.01232242381854651</v>
+        <v>0.004989521740164529</v>
       </c>
       <c r="T15">
-        <v>0.01232242381854651</v>
+        <v>0.004989521740164529</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>25</v>
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.246467333333333</v>
+        <v>0.6846153333333334</v>
       </c>
       <c r="H16">
-        <v>3.739402</v>
+        <v>2.053846</v>
       </c>
       <c r="I16">
-        <v>0.01968460016973576</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="J16">
-        <v>0.01968460016973576</v>
+        <v>0.01125575728023152</v>
       </c>
       <c r="K16">
         <v>2</v>
@@ -1426,338 +1426,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.07918166666666666</v>
+        <v>0.06973866666666667</v>
       </c>
       <c r="N16">
-        <v>0.237545</v>
+        <v>0.209216</v>
       </c>
       <c r="O16">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="P16">
-        <v>0.139228427931141</v>
+        <v>0.08683435372497944</v>
       </c>
       <c r="Q16">
-        <v>0.09869736089888889</v>
+        <v>0.04774416052622223</v>
       </c>
       <c r="R16">
-        <v>0.8882762480900001</v>
+        <v>0.429697444736</v>
       </c>
       <c r="S16">
-        <v>0.002740655936085381</v>
+        <v>0.0009773864091141362</v>
       </c>
       <c r="T16">
-        <v>0.002740655936085381</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>24</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>1.246467333333333</v>
-      </c>
-      <c r="H17">
-        <v>3.739402</v>
-      </c>
-      <c r="I17">
-        <v>0.01968460016973576</v>
-      </c>
-      <c r="J17">
-        <v>0.01968460016973576</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M17">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.365222</v>
-      </c>
-      <c r="O17">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P17">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q17">
-        <v>0.1517457641382222</v>
-      </c>
-      <c r="R17">
-        <v>1.365711877244</v>
-      </c>
-      <c r="S17">
-        <v>0.004213718841857227</v>
-      </c>
-      <c r="T17">
-        <v>0.004213718841857228</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>24</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18">
-        <v>3</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1.78513</v>
-      </c>
-      <c r="H18">
-        <v>5.35539</v>
-      </c>
-      <c r="I18">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="J18">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-      <c r="L18">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M18">
-        <v>0.011782</v>
-      </c>
-      <c r="N18">
-        <v>0.035346</v>
-      </c>
-      <c r="O18">
-        <v>0.02071678214087482</v>
-      </c>
-      <c r="P18">
-        <v>0.02071678214087482</v>
-      </c>
-      <c r="Q18">
-        <v>0.02103240166</v>
-      </c>
-      <c r="R18">
-        <v>0.18929161494</v>
-      </c>
-      <c r="S18">
-        <v>0.0005840336148264724</v>
-      </c>
-      <c r="T18">
-        <v>0.0005840336148264725</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>24</v>
-      </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>1.78513</v>
-      </c>
-      <c r="H19">
-        <v>5.35539</v>
-      </c>
-      <c r="I19">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="J19">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M19">
-        <v>0.3560133333333333</v>
-      </c>
-      <c r="N19">
-        <v>1.06804</v>
-      </c>
-      <c r="O19">
-        <v>0.6259930967504086</v>
-      </c>
-      <c r="P19">
-        <v>0.6259930967504087</v>
-      </c>
-      <c r="Q19">
-        <v>0.6355300817333333</v>
-      </c>
-      <c r="R19">
-        <v>5.719770735599999</v>
-      </c>
-      <c r="S19">
-        <v>0.01764757715100055</v>
-      </c>
-      <c r="T19">
-        <v>0.01764757715100056</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20">
-        <v>1.78513</v>
-      </c>
-      <c r="H20">
-        <v>5.35539</v>
-      </c>
-      <c r="I20">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="J20">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="K20">
-        <v>2</v>
-      </c>
-      <c r="L20">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M20">
-        <v>0.07918166666666666</v>
-      </c>
-      <c r="N20">
-        <v>0.237545</v>
-      </c>
-      <c r="O20">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="P20">
-        <v>0.139228427931141</v>
-      </c>
-      <c r="Q20">
-        <v>0.1413495686166666</v>
-      </c>
-      <c r="R20">
-        <v>1.27214611755</v>
-      </c>
-      <c r="S20">
-        <v>0.003925034375430158</v>
-      </c>
-      <c r="T20">
-        <v>0.00392503437543016</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21">
-        <v>3</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21">
-        <v>1.78513</v>
-      </c>
-      <c r="H21">
-        <v>5.35539</v>
-      </c>
-      <c r="I21">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="J21">
-        <v>0.0281913286945349</v>
-      </c>
-      <c r="K21">
-        <v>1</v>
-      </c>
-      <c r="L21">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M21">
-        <v>0.1217406666666667</v>
-      </c>
-      <c r="N21">
-        <v>0.365222</v>
-      </c>
-      <c r="O21">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="P21">
-        <v>0.2140616931775755</v>
-      </c>
-      <c r="Q21">
-        <v>0.2173229162866666</v>
-      </c>
-      <c r="R21">
-        <v>1.95590624658</v>
-      </c>
-      <c r="S21">
-        <v>0.006034683553277709</v>
-      </c>
-      <c r="T21">
-        <v>0.006034683553277711</v>
+        <v>0.0009773864091141362</v>
       </c>
     </row>
   </sheetData>
